--- a/MBB/KQKD.xlsx
+++ b/MBB/KQKD.xlsx
@@ -1820,292 +1820,292 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3237</t>
+          <t>3236620</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6831</t>
+          <t>6831177</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3619</t>
+          <t>3618590</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>4048838</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4097</t>
+          <t>4097159</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>3875681</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3384525</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4094</t>
+          <t>4093587</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>3673133</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3518</t>
+          <t>3517568</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>3083954</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>3189</t>
+          <t>3188579</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3130297</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3474</t>
+          <t>3473781</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>3188134</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3356391</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3589</t>
+          <t>3589449</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>3397273</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3130</t>
+          <t>3130201</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>3421</t>
+          <t>3420705</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3471723</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>3741095</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>4091465</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>4248194</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4455444</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>4804</t>
+          <t>4804146</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>5097</t>
+          <t>5097069</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>5519367</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>5617</t>
+          <t>5616972</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>6174</t>
+          <t>6174345</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>6364</t>
+          <t>6363929</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6669119</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>7179</t>
+          <t>7179485</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>7716318</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>8048318</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>8252483</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>8080</t>
+          <t>8080293</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>7792</t>
+          <t>7791831</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>8159</t>
+          <t>8159462</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>8736</t>
+          <t>8735808</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>9013</t>
+          <t>9013087</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>9635</t>
+          <t>9635316</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>9589</t>
+          <t>9588708</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>10228</t>
+          <t>10227821</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>11664</t>
+          <t>11663870</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>12480</t>
+          <t>12480118</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>13038</t>
+          <t>13038154</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>15304</t>
+          <t>15303670</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>17383</t>
+          <t>17383068</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>17441</t>
+          <t>17440908</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>17322</t>
+          <t>17322406</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>16997</t>
+          <t>16996661</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>16260</t>
+          <t>16260267</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>16953</t>
+          <t>16952930</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>17397</t>
+          <t>17396620</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>18452</t>
+          <t>18452076</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>19590</t>
+          <t>19590312</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>21099</t>
+          <t>21099126</t>
         </is>
       </c>
     </row>
@@ -2117,292 +2117,292 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2071748</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4323</t>
+          <t>4322950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2314</t>
+          <t>2313667</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2484</t>
+          <t>2483864</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2493852</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2291</t>
+          <t>2290664</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1686694</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2442</t>
+          <t>2441555</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>2109495</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1958821</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1697988</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1572762</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1696154</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1574323</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1631698</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>1706354</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1588156</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1512695</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1539320</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1578927</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1703622</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1883890</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2020466</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1965555</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2049</t>
+          <t>2048832</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2072192</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>2262098</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>2273952</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2323637</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2670497</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2731231</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2515504</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>3045</t>
+          <t>3044627</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3321</t>
+          <t>3321462</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3466783</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3364</t>
+          <t>3363735</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3385</t>
+          <t>3385082</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>3167834</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>2994784</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2941898</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>3061051</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3072780</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3073514</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>3058</t>
+          <t>3058033</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3278</t>
+          <t>3278385</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>3510712</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>3999525</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5674068</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>7156</t>
+          <t>7155875</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>7960</t>
+          <t>7959538</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>7510613</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>7833</t>
+          <t>7833169</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7197974</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>6422</t>
+          <t>6421817</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>6980</t>
+          <t>6979985</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>7309898</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>7898</t>
+          <t>7898128</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>8727</t>
+          <t>8727009</t>
         </is>
       </c>
     </row>
@@ -2414,292 +2414,292 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1164872</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2508</t>
+          <t>2508227</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1304923</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1564974</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1603306</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1585017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1697831</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1652032</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1563638</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1558748</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1385966</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1615816</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1434143</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1899457</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1556437</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1650038</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2001293</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1884578</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1590881</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1841778</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1768101</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1857205</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>2070999</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2283</t>
+          <t>2282639</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2407</t>
+          <t>2406612</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2731954</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2835</t>
+          <t>2834971</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3245</t>
+          <t>3245415</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>3293335</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>3503848</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>3632699</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>4153615</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4134858</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>4394855</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4581535</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>4889</t>
+          <t>4888748</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>4695211</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4623996</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>5165</t>
+          <t>5164678</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>5794</t>
+          <t>5793910</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>5952036</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>6563</t>
+          <t>6562536</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>6515194</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>7170</t>
+          <t>7169788</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>8385</t>
+          <t>8385485</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>8969</t>
+          <t>8969406</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>9039</t>
+          <t>9038629</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>9630</t>
+          <t>9629602</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>10227</t>
+          <t>10227193</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>9481</t>
+          <t>9481370</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>9811793</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>9163</t>
+          <t>9163492</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>9062</t>
+          <t>9062293</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>10531</t>
+          <t>10531113</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>10417</t>
+          <t>10416635</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>11142</t>
+          <t>11142178</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11692</t>
+          <t>11692184</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>12372</t>
+          <t>12372117</t>
         </is>
       </c>
     </row>
@@ -2711,292 +2711,292 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202705</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>367260</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175708</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629795</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207569</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>231528</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>198290</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194431</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237249</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>291773</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>342432</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>136328</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257998</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>310369</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>407225</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>432601</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>184249</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188505</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>294037</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>861179</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>179041</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237428</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>281394</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>600027</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>615559</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>955</t>
+          <t>955072</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>936355</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>715853</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>898862</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1137843</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1298063</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>2374087</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1231918</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1668422</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>1501012</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2019227</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>1616446</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1960643</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2011318</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2639766</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2568758</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>3282</t>
+          <t>3282045</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>2638414</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3819078</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3706255</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3622219</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>3331</t>
+          <t>3331326</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>3584</t>
+          <t>3583934</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>2848945</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>3289999</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3240037</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>3759</t>
+          <t>3758643</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>3267</t>
+          <t>3267400</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>3749761</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3436204</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>4149237</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>3611961</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4613875</t>
         </is>
       </c>
     </row>
@@ -3008,292 +3008,292 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27052</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39090</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23302</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>460293</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25182</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21148</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43817</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21690</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64836</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81013</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>121873</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42553</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52603</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63026</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131856</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210305</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72822</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60514</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91559</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>759236</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60789</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>76430</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>101427</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376604</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>382893</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526609</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>561531</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>621130</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>583523</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>461463</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587878</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1498503</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473271</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>613878</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1001594</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>1145999</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>871560</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1015731</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1215604</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1549726</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1502792</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2252</t>
+          <t>2252456</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1712025</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>2473644</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2589141</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>2611770</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2547030</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>2360225</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2159299</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2429227</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2160948</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2302925</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>2322</t>
+          <t>2322199</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2395494</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>2548181</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>2968479</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2376545</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>2698332</t>
         </is>
       </c>
     </row>
@@ -3305,292 +3305,292 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175654</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>328169</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>152406</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169502</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>182388</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>210380</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>154473</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172741</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>172413</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210760</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220559</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93774</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>205395</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247342</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275369</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222296</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111427</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127991</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202478</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101943</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>118252</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160998</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179967</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223423</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232666</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>428463</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>374824</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94723</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>315339</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>676380</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>710185</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>875585</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>758647</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1054544</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499418</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>873228</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>744886</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>944912</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>795714</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1090040</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1065966</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1029589</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>926389</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>1345434</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1117114</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1010449</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>784296</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>1223709</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689646</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>860772</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1079089</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1455718</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>945201</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1354267</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>888023</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1180758</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>1235416</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1915543</t>
         </is>
       </c>
     </row>
@@ -3602,292 +3602,292 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-149</t>
+          <t>-149313</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-164</t>
+          <t>-164488</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-3187</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53952</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12254</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13041</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-31212</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26913</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45510</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44451</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-17554</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19862</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42895</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22072</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5006</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32545</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7818</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59222</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>59463</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24985</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14256</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72325</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30258</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23656</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82329</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65529</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75612</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>99069</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127165</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142722</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120368</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163888</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>187682</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175540</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>159443</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181218</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177554</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>267593</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>236534</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>321897</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>356486</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>416551</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>467020</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471628</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>401834</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>363478</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>370697</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>324943</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>224464</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289721</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>461483</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>393436</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>660609</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>484636</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537800</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>534121</t>
         </is>
       </c>
     </row>
@@ -3899,17 +3899,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-154</t>
+          <t>-154268</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-586</t>
+          <t>-586383</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>-505460</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3919,118 +3919,118 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-47818</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-48</t>
+          <t>-47648</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-120</t>
+          <t>-120412</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>376954</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44365</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134634</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-183</t>
+          <t>-183041</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105313</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-104</t>
+          <t>-103745</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147428</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>157301</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20783</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71851</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28885</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-53</t>
+          <t>-52799</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>145048</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82483</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40484</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42791</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-21313</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>275879</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18955</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11122</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr"/>
@@ -4052,87 +4052,87 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>329032</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>407889</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>239491</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99534</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34504</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5618</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37024</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122498</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>185957</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>196087</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>964787</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447030</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226010</t>
         </is>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>118195</t>
         </is>
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168718</t>
         </is>
       </c>
       <c r="BG15" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246982</t>
         </is>
       </c>
     </row>
@@ -4150,12 +4150,12 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-265</t>
+          <t>-264537</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-24192</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4173,7 +4173,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15211</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -4189,21 +4189,21 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2854</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11189</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1995</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr"/>
@@ -4213,58 +4213,58 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35262</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-29608</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181041</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80850</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>162319</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204179</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>497858</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216651</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155794</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>80652</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>690537</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr"/>
@@ -4272,72 +4272,72 @@
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1024499</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48957</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169412</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72380</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>134963</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108910</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180558</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>-124</t>
+          <t>-124027</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216958</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>346241</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>-172</t>
+          <t>-172432</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>2412</t>
+          <t>2412338</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>509329</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>785944</t>
         </is>
       </c>
     </row>
@@ -4349,284 +4349,284 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>281559</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566884</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>825890</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>173365</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88393</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106610</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64466</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19876</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>375116</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43413</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65092</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>140414</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52401</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83855</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>108030</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220069</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>109400</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117154</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>162286</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135802</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>461577</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144265</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226803</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>272318</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465688</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264158</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>459168</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>602646</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642599</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>323751</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>496125</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>987025</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>721654</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>387533</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>700023</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>608672</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475370</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1216935</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>486373</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>907984</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537988</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566691</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>585491</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>451488</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>466982</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>628973</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>570677</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>761479</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>364448</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1035400</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>677927</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>1203045</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1179210</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1363797</t>
         </is>
       </c>
     </row>
@@ -4638,22 +4638,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43375</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-774</t>
+          <t>-773676</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160146</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4683,7 +4683,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12667</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -4700,47 +4700,47 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246537</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204954</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65072</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75492</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87522</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201070</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147370</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>161432</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>183245</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr"/>
@@ -4775,292 +4775,292 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>238185</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>446161</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1599566</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5597</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88393</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106610</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64466</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19876</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>375116</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43413</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65092</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>140414</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52401</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83855</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>108030</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207402</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99908</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>109400</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117154</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>162286</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135802</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>461577</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>144265</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226803</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>272318</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465688</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>264158</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>459168</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>356109</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437645</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>258678</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420633</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>899502</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520584</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>240162</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>538591</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>425427</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475370</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1216935</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>643022</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>486373</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>907984</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>537988</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566691</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>585491</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>451488</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>466982</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>628973</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>570677</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>761479</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>364448</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1035400</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>677927</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>1203045</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1179210</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1363797</t>
         </is>
       </c>
     </row>
@@ -5072,292 +5072,292 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18295</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12597</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28922</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21113</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28595</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14959</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20542</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17156</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45550</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12008</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42131</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3295</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30830</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7184</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52229</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16624</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15642</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80303</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15851</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5440</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27220</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24482</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5015</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9224</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30843</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>86952</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>728</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42880</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14947</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19672</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68274</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16270</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6746</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30856</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38526</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7846</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37607</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120245</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5116</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5154</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33369</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12612</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21761</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6993</t>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22361</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27174</t>
         </is>
       </c>
     </row>
@@ -5369,292 +5369,292 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>444199</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>924988</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1118604</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>834753</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>498990</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607676</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>656287</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>885424</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>616180</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>672011</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>733722</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>682374</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>656377</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>802215</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>786238</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>869372</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>721080</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>821828</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>803701</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1102522</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>922057</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>887160</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1075937</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1289514</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1210618</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1323548</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1539641</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1925432</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1622846</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1926943</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1968078</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3215935</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>2066</t>
+          <t>2065684</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>2306749</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>2292225</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3059048</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>2050501</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2433787</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>2836321</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>3234848</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2803949</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>3086784</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3023716</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>3462739</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3597881</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>3860555</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>3729</t>
+          <t>3728778</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>3628414</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>3568</t>
+          <t>3567903</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>4135168</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>3334</t>
+          <t>3333959</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>3876</t>
+          <t>3875911</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3514292</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>4490504</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>3756</t>
+          <t>3755899</t>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>5246555</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>3949958</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>4956470</t>
         </is>
       </c>
     </row>
@@ -5666,292 +5666,292 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>849226</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1619294</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1194030</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>953336</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>1273096</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1269315</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1210216</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>1370099</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1228179</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>1371472</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1439011</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>872582</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1175696</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1466280</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1270763</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>1279953</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1560182</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>1455336</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1237263</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1054589</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1121755</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1322621</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1472007</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1764306</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1691106</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>2155032</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>2092074</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1929625</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>2611</t>
+          <t>2610701</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>2877627</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2831</t>
+          <t>2831072</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2499539</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>3388635</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3851</t>
+          <t>3850902</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4053177</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>3634</t>
+          <t>3634025</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4288281</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>4140</t>
+          <t>4139855</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>3899</t>
+          <t>3899116</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4479</t>
+          <t>4479463</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>6389</t>
+          <t>6388915</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>5837818</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>5676</t>
+          <t>5676461</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>6654</t>
+          <t>6654116</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>8035</t>
+          <t>8035185</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>7361</t>
+          <t>7361325</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>7257</t>
+          <t>7257472</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>8123</t>
+          <t>8123015</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>8362</t>
+          <t>8361814</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>7426</t>
+          <t>7425667</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>8731</t>
+          <t>8731191</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>7874</t>
+          <t>7874449</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>8502</t>
+          <t>8502406</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>9639</t>
+          <t>9638744</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>8948</t>
+          <t>8947866</t>
         </is>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>11316956</t>
         </is>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11373</t>
+          <t>11372739</t>
         </is>
       </c>
       <c r="BG22" t="inlineStr">
         <is>
-          <t>12289</t>
+          <t>12289208</t>
         </is>
       </c>
     </row>
@@ -5963,292 +5963,292 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>188216</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>484224</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>506504</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>369543</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>309196</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>345869</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1028918</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>396688</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>402822</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>779070</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>318015</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>365946</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>573583</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>548470</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>530691</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>762815</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>424687</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>512308</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>402259</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>239426</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342740</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545765</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>902173</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>579164</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>742639</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>614317</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1315991</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>692224</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>966640</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645617</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>747084</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>964495</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1399675</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1312142</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1214311</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2092625</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1216902</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>883677</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1925236</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>1809057</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2431410</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1778158</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2011426</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>2125512</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>1374812</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>961967</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3585386</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1849648</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>1202803</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>1447404</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1587177</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2707095</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005743</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1639970</t>
         </is>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3223836</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>2986414</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>4786</t>
+          <t>4786217</t>
         </is>
       </c>
     </row>
@@ -6260,292 +6260,292 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>661010</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1135070</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>687525</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>861836</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>903553</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>960120</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>864347</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>341181</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>831491</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>968649</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>659941</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>554567</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>809750</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>892697</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>722293</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>749263</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>797367</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1030649</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>724955</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>652330</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>882</t>
+          <t>882329</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>979881</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>926242</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>862133</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1111942</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>1412393</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>1477757</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>613634</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1918477</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1910987</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2185455</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1752455</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2424141</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2451227</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2741035</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>2419714</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>2196</t>
+          <t>2195657</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2922953</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3015439</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2554227</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>4580</t>
+          <t>4579858</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>3406408</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>3898303</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4642690</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>5909673</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>5986513</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>6296</t>
+          <t>6295505</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>4538</t>
+          <t>4537629</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>6512166</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6222864</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>7284</t>
+          <t>7283787</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>6287</t>
+          <t>6287272</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>5795</t>
+          <t>5795311</t>
         </is>
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>7633001</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>7308</t>
+          <t>7307896</t>
         </is>
       </c>
       <c r="BE24" t="inlineStr">
         <is>
-          <t>8093</t>
+          <t>8093120</t>
         </is>
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>8386</t>
+          <t>8386325</t>
         </is>
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>7502991</t>
         </is>
       </c>
     </row>
@@ -6557,292 +6557,292 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178411</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>366612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170791</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169098</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220438</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234935</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212379</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94603</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204064</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232749</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213774</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>173500</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190534</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143703</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176985</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>211360</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153701</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>165352</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175554</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178220</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>191388</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221708</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222283</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>304270</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>283101</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>315452</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>381333</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>422046</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>420755</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>351023</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>469089</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>470355</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529890</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495558</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>407402</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>542605</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>586636</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>552778</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>915498</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>689678</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>763340</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>939058</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1188780</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1201839</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1258526</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>933828</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1306257</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1240370</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1466726</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1256516</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>1172141</t>
         </is>
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1535537</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1465240</t>
         </is>
       </c>
       <c r="BE25" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1715348</t>
         </is>
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1708859</t>
         </is>
       </c>
       <c r="BG25" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1496624</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>447</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6883,12 +6883,12 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>995</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-574</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
@@ -6897,13 +6897,13 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -6912,162 +6912,162 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>205</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11732</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2491</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12882</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22464</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-17488</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2352</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5395</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9315</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5495</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-8758</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1972</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-13767</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12750</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5549</t>
         </is>
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-9145</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>353</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3647</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>-14332</t>
         </is>
       </c>
       <c r="BB26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1046</t>
         </is>
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4519</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-787</t>
         </is>
       </c>
       <c r="BE26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3850</t>
         </is>
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="BG26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1661</t>
         </is>
       </c>
     </row>
@@ -7079,292 +7079,292 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178411</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>366612</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>171238</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169098</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220438</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234935</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212379</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94603</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>204064</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233743</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213200</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>173500</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190534</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143703</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163277</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176985</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212499</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153701</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>165352</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175554</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>178220</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>191552</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221708</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222283</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>304475</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>283101</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>315452</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>369601</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>419555</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>424412</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363904</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>491553</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>452867</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529890</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>493206</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>412797</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>533290</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>592131</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>544020</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>913526</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675911</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>776090</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>940295</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1183231</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>1192694</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1260603</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>938</t>
+          <t>937607</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1306610</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1240424</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1463079</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>1242</t>
+          <t>1242184</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>1171095</t>
         </is>
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1531018</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>1464453</t>
         </is>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1711498</t>
         </is>
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1711446</t>
         </is>
       </c>
       <c r="BG27" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1498285</t>
         </is>
       </c>
     </row>
@@ -7376,292 +7376,292 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>482598</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>768458</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>516287</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>692738</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>683116</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>725184</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>651968</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246579</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627427</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>734906</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446741</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474604</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>636250</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>702163</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>578590</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585986</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>620382</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>818150</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571254</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486978</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>706775</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>801661</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>734690</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>640425</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>889659</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1107918</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1194656</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298182</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1548876</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1491432</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1761043</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1388550</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1932588</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1998360</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2211146</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1926508</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1782860</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>2389663</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>2423309</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2010207</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3666332</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>2730497</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>3122</t>
+          <t>3122213</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>3702395</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>4726442</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>4793819</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>5034902</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3600022</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>5206</t>
+          <t>5205556</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>4982</t>
+          <t>4982440</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>5821</t>
+          <t>5820708</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>5045088</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>4624216</t>
         </is>
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>6102</t>
+          <t>6101983</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5843443</t>
         </is>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
-          <t>6382</t>
+          <t>6381622</t>
         </is>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>6675</t>
+          <t>6674879</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6004706</t>
         </is>
       </c>
     </row>
@@ -7673,118 +7673,118 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-28</t>
+          <t>-27558</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-132</t>
+          <t>-132389</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-21</t>
+          <t>-20683</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-52</t>
+          <t>-52372</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8195</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3055</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4318</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9400</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-83</t>
+          <t>-83144</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80350</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7725</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-41</t>
+          <t>-41249</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52505</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>476</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-31835</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38528</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>22378</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-55</t>
+          <t>-54647</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -7798,123 +7798,123 @@
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153838</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56529</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70609</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127080</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66189</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79502</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113523</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>134471</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100037</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>176331</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>180233</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170617</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155709</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165891</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>181894</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>88945</t>
         </is>
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47443</t>
         </is>
       </c>
       <c r="BA29" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58722</t>
         </is>
       </c>
       <c r="BB29" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91518</t>
         </is>
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75234</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53287</t>
         </is>
       </c>
       <c r="BE29" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97468</t>
         </is>
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107139</t>
         </is>
       </c>
       <c r="BG29" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127101</t>
         </is>
       </c>
     </row>
@@ -7926,292 +7926,292 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>510156</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>900847</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>536971</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>745110</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>680736</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>716989</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>648913</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>246579</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>623109</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>725507</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>529885</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>394255</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>628213</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>694438</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>619839</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>533480</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>619906</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>809180</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>603089</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>448450</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705157</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>799262</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>712312</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>695072</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>889659</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1107918</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1194656</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298182</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1548876</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1491432</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1761043</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1388550</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1932588</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1844523</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2211146</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1869979</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1712251</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>2262584</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2357120</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1930705</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>3553</t>
+          <t>3552809</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2596026</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3022176</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>3526064</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>4546</t>
+          <t>4546209</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4623202</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>4879</t>
+          <t>4879193</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3434131</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>5024</t>
+          <t>5023662</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>4893495</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>5773</t>
+          <t>5773265</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>4986</t>
+          <t>4986366</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>4532698</t>
         </is>
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>6027</t>
+          <t>6026749</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
         <is>
-          <t>5790</t>
+          <t>5790156</t>
         </is>
       </c>
       <c r="BE30" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6284154</t>
         </is>
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6567740</t>
         </is>
       </c>
       <c r="BG30" t="inlineStr">
         <is>
-          <t>5878</t>
+          <t>5877605</t>
         </is>
       </c>
     </row>
